--- a/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>IRCC</t>
   </si>
@@ -303,9 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,74 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43616</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43524</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43434</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43343</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43251</v>
+      </c>
+      <c r="I7" s="2">
         <v>43159</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>43069</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>42978</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>42886</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>42794</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>42704</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>42613</v>
       </c>
-      <c r="K7" s="2">
+      <c r="P7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +760,23 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +804,23 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +848,23 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +876,13 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +910,23 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +954,23 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>-1800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -894,42 +993,72 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +1067,13 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -947,28 +1081,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>-200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1173,13 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1207,23 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1251,23 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,54 +1278,84 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1383,23 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1427,111 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1559,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1603,23 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1647,23 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1691,23 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,37 +1735,67 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1823,116 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43616</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43524</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43434</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43343</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43251</v>
+      </c>
+      <c r="I38" s="2">
         <v>43159</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>43069</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>42978</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>42886</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>42794</v>
       </c>
-      <c r="I38" s="2">
+      <c r="N38" s="2">
         <v>42704</v>
       </c>
-      <c r="J38" s="2">
+      <c r="O38" s="2">
         <v>42613</v>
       </c>
-      <c r="K38" s="2">
+      <c r="P38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1944,13 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1962,13 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1562,8 +1996,23 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +2040,67 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +2128,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,13 +2172,28 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1707,8 +2216,23 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,37 +2260,67 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2348,23 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2392,23 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2436,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2480,23 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,13 +2524,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -1939,8 +2568,23 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2596,13 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2614,13 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1974,57 +2628,87 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2032,10 +2716,10 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2047,47 +2731,77 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
-        <v>1700</v>
-      </c>
       <c r="H60" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="I60" s="3">
         <v>1700</v>
       </c>
       <c r="J60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K60" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2110,8 +2824,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2868,23 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2912,23 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2956,23 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +3000,67 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="E66" s="3">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
-        <v>1700</v>
-      </c>
       <c r="H66" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="I66" s="3">
         <v>1700</v>
       </c>
       <c r="J66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K66" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +3072,13 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +3106,23 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +3150,23 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +3194,23 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +3238,67 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-6200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-5900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-5700</v>
       </c>
       <c r="K72" s="3">
         <v>-5900</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +3326,23 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +3370,23 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +3414,67 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1700</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>-1700</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1800</v>
       </c>
-      <c r="G76" s="3">
-        <v>-1700</v>
-      </c>
       <c r="H76" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="I76" s="3">
         <v>-1700</v>
       </c>
       <c r="J76" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K76" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +3502,116 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43616</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43524</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43434</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43343</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43251</v>
+      </c>
+      <c r="I80" s="2">
         <v>43159</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>43069</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>42978</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>42886</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>42794</v>
       </c>
-      <c r="I80" s="2">
+      <c r="N80" s="2">
         <v>42704</v>
       </c>
-      <c r="J80" s="2">
+      <c r="O80" s="2">
         <v>42613</v>
       </c>
-      <c r="K80" s="2">
+      <c r="P80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3623,13 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +3657,23 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3701,23 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3745,23 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3789,23 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3833,23 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3877,23 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3921,23 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3949,13 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3983,23 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +4027,23 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +4071,23 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +4115,23 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +4143,13 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +4177,23 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +4221,23 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +4265,23 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,19 +4309,34 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3118,14 +4347,29 @@
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +4397,23 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +4439,21 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>IRCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,64 +675,79 @@
     <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43799</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43708</v>
+      </c>
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +790,20 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +846,20 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +902,20 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +932,12 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +980,20 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1036,20 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1008,30 +1087,42 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1039,17 +1130,17 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1057,8 +1148,20 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1175,12 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,43 +1188,55 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>-1800</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>-200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>1800</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1309,12 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,22 +1357,34 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1266,8 +1413,20 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1293,25 +1452,37 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,22 +1490,22 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1343,19 +1514,31 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1581,20 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,31 +1637,43 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1475,42 +1682,54 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1519,19 +1738,31 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1805,20 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1861,20 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1917,20 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1973,20 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,31 +2029,43 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -1783,19 +2074,31 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,31 +2141,43 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -1871,68 +2186,92 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43799</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43708</v>
+      </c>
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2288,12 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,13 +2310,17 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2011,8 +2358,20 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,25 +2414,37 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2081,17 +2452,17 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2099,8 +2470,20 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2526,20 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2582,20 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2199,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2231,8 +2638,20 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,25 +2694,37 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2301,17 +2732,17 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2319,8 +2750,20 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2806,20 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2862,20 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2918,20 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2974,20 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +3030,20 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,16 +3051,16 @@
         <v>900</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -2583,8 +3086,20 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +3116,12 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +3138,17 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2640,86 +3163,110 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1000</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2731,10 +3278,10 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -2743,60 +3290,84 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>200</v>
+      </c>
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1700</v>
       </c>
       <c r="K60" s="3">
         <v>1800</v>
       </c>
       <c r="L60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M60" s="3">
         <v>1700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1600</v>
       </c>
       <c r="N60" s="3">
         <v>1700</v>
       </c>
       <c r="O60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,16 +3375,16 @@
         <v>800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2839,8 +3410,20 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3466,20 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3522,20 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3578,20 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3634,76 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1700</v>
       </c>
       <c r="K66" s="3">
         <v>1800</v>
       </c>
       <c r="L66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M66" s="3">
         <v>1700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1600</v>
       </c>
       <c r="N66" s="3">
         <v>1700</v>
       </c>
       <c r="O66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3720,12 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3768,20 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3824,20 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3880,20 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3936,76 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-6300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-6300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-6200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-6200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-5900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-5900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-5700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-5700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-5700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-5700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +4048,20 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +4104,20 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +4160,76 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1700</v>
       </c>
       <c r="K76" s="3">
         <v>-1800</v>
       </c>
       <c r="L76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1600</v>
       </c>
       <c r="N76" s="3">
         <v>-1700</v>
       </c>
       <c r="O76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,80 +4272,104 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43799</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43708</v>
+      </c>
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -3599,19 +4378,31 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4419,12 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3645,14 +4440,14 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3672,8 +4467,20 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4523,20 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4579,20 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4635,20 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4691,20 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4747,20 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4803,20 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4833,12 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4881,20 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4937,20 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4993,20 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +5049,20 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +5079,12 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +5127,20 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +5183,20 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +5239,20 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,19 +5295,31 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4362,14 +5345,26 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +5407,20 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +5461,18 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>IRCC</t>
   </si>
@@ -1654,8 +1654,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1710,8 +1710,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2046,8 +2046,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2158,8 +2158,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2711,8 +2711,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>800</v>
       </c>
       <c r="E48" s="3">
         <v>800</v>
@@ -3651,8 +3651,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
@@ -4350,8 +4350,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>IRCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,37 +1081,43 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1099,13 +1138,19 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1124,11 +1169,11 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1142,11 +1187,11 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1200,29 +1253,29 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>-1800</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1230,13 +1283,19 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>-200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1256,29 +1315,29 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1286,13 +1345,19 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1386,11 +1459,11 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1425,16 +1498,22 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1464,14 +1543,14 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1481,8 +1560,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1502,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>1700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1517,28 +1602,34 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1746,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1670,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>1700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1685,28 +1788,34 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1726,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>1700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1741,28 +1850,34 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2180,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2062,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>1700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -2077,28 +2222,34 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2304,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2174,13 +2331,13 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>1700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2189,89 +2346,101 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,20 +2485,22 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2438,19 +2623,19 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2464,11 +2649,11 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,13 +2791,19 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2609,16 +2812,16 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2726,11 +2941,11 @@
       <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2744,11 +2959,11 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,13 +3287,19 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E54" s="3">
         <v>800</v>
@@ -3057,16 +3308,16 @@
         <v>900</v>
       </c>
       <c r="G54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H54" s="3">
         <v>900</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,40 +3401,42 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3184,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
@@ -3196,25 +3457,31 @@
         <v>600</v>
       </c>
       <c r="T57" s="3">
+        <v>600</v>
+      </c>
+      <c r="U57" s="3">
+        <v>600</v>
+      </c>
+      <c r="V57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -3222,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>1700</v>
@@ -3234,16 +3501,16 @@
         <v>1700</v>
       </c>
       <c r="N58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1000</v>
       </c>
       <c r="R58" s="3">
         <v>1000</v>
@@ -3254,8 +3521,14 @@
       <c r="T58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3269,10 +3542,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3290,16 +3563,16 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3310,19 +3583,25 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3331,31 +3610,31 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1800</v>
       </c>
       <c r="P60" s="3">
         <v>1700</v>
       </c>
       <c r="Q60" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="R60" s="3">
         <v>1700</v>
@@ -3364,18 +3643,24 @@
         <v>1600</v>
       </c>
       <c r="T60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>800</v>
@@ -3387,10 +3672,10 @@
         <v>800</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3955,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3664,34 +3979,34 @@
         <v>1000</v>
       </c>
       <c r="H66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1800</v>
       </c>
       <c r="P66" s="3">
         <v>1700</v>
       </c>
       <c r="Q66" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="R66" s="3">
         <v>1700</v>
@@ -3700,10 +4015,16 @@
         <v>1600</v>
       </c>
       <c r="T66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4289,14 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3960,10 +4307,10 @@
         <v>-4700</v>
       </c>
       <c r="F72" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="G72" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H72" s="3">
         <v>-4600</v>
@@ -3972,28 +4319,28 @@
         <v>-4600</v>
       </c>
       <c r="J72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="L72" s="3">
         <v>-6300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5900</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-5700</v>
       </c>
       <c r="R72" s="3">
         <v>-5700</v>
@@ -4002,10 +4349,16 @@
         <v>-5700</v>
       </c>
       <c r="T72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="V72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4537,14 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4184,10 +4555,10 @@
         <v>-200</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
@@ -4196,28 +4567,28 @@
         <v>-100</v>
       </c>
       <c r="J76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1800</v>
       </c>
       <c r="P76" s="3">
         <v>-1700</v>
       </c>
       <c r="Q76" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="R76" s="3">
         <v>-1700</v>
@@ -4226,10 +4597,16 @@
         <v>-1600</v>
       </c>
       <c r="T76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4661,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4366,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>1700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -4381,28 +4770,34 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4440,20 +4837,20 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5357,14 +5848,20 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>IRCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,16 +1104,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1104,23 +1124,23 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1144,13 +1164,16 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-200</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1175,8 +1198,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1193,8 +1216,8 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1259,26 +1286,26 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>-1800</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1289,13 +1316,16 @@
         <v>0</v>
       </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>-200</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1321,26 +1351,26 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1351,13 +1381,16 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1502,8 @@
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1504,19 +1541,22 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1549,11 +1589,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1593,29 +1636,29 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1623,13 +1666,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1779,29 +1831,29 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1809,13 +1861,16 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1841,29 +1896,29 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1871,13 +1926,16 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2213,29 +2286,29 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2243,13 +2316,16 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2337,29 +2416,29 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2367,80 +2446,86 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2499,11 +2586,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2629,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2637,8 +2730,8 @@
       <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>100</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2655,8 +2748,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2809,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -2824,7 +2926,7 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2947,8 +3055,8 @@
       <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>800</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2965,8 +3073,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3305,13 +3431,13 @@
         <v>800</v>
       </c>
       <c r="F54" s="3">
+        <v>800</v>
+      </c>
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>900</v>
       </c>
       <c r="I54" s="3">
         <v>900</v>
@@ -3320,7 +3446,7 @@
         <v>900</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3415,10 +3546,10 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -3427,10 +3558,10 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3439,7 +3570,7 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3451,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>600</v>
@@ -3463,10 +3594,13 @@
         <v>600</v>
       </c>
       <c r="V57" s="3">
+        <v>600</v>
+      </c>
+      <c r="W57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,16 +3608,16 @@
         <v>900</v>
       </c>
       <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3495,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>1700</v>
@@ -3507,13 +3641,13 @@
         <v>1700</v>
       </c>
       <c r="P58" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Q58" s="3">
         <v>1600</v>
       </c>
       <c r="R58" s="3">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="S58" s="3">
         <v>1000</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3548,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3569,13 +3706,13 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -3589,22 +3726,25 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
         <v>1000</v>
       </c>
       <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -3616,43 +3756,46 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1800</v>
       </c>
       <c r="N60" s="3">
         <v>1800</v>
       </c>
       <c r="O60" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="P60" s="3">
         <v>1700</v>
       </c>
       <c r="Q60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>800</v>
@@ -3678,7 +3821,7 @@
         <v>800</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,13 +4116,16 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
@@ -3985,46 +4143,49 @@
         <v>1000</v>
       </c>
       <c r="J66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1800</v>
       </c>
       <c r="N66" s="3">
         <v>1800</v>
       </c>
       <c r="O66" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="P66" s="3">
         <v>1700</v>
       </c>
       <c r="Q66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,13 +4466,16 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E72" s="3">
         <v>-4700</v>
@@ -4313,7 +4487,7 @@
         <v>-4700</v>
       </c>
       <c r="H72" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I72" s="3">
         <v>-4600</v>
@@ -4325,25 +4499,25 @@
         <v>-4600</v>
       </c>
       <c r="L72" s="3">
-        <v>-6300</v>
+        <v>-4600</v>
       </c>
       <c r="M72" s="3">
         <v>-6300</v>
       </c>
       <c r="N72" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="O72" s="3">
         <v>-6200</v>
       </c>
       <c r="P72" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="Q72" s="3">
         <v>-5900</v>
       </c>
       <c r="R72" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="S72" s="3">
         <v>-5700</v>
@@ -4355,10 +4529,13 @@
         <v>-5700</v>
       </c>
       <c r="V72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="W72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,13 +4726,16 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
@@ -4561,7 +4747,7 @@
         <v>-200</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
@@ -4573,40 +4759,43 @@
         <v>-100</v>
       </c>
       <c r="L76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1800</v>
       </c>
       <c r="N76" s="3">
         <v>-1800</v>
       </c>
       <c r="O76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="P76" s="3">
         <v>-1700</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4761,29 +4956,29 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -4791,13 +4986,16 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4843,8 +5042,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4852,8 +5051,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5854,14 +6100,17 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>IRCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,8 +1138,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1127,23 +1147,23 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1800</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1167,13 +1187,16 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1201,8 +1224,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1219,8 +1242,8 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1289,26 +1316,26 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>-1800</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1319,13 +1346,16 @@
         <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>-200</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1354,26 +1384,26 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1384,13 +1414,16 @@
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1542,8 @@
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,11 +1595,11 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1592,11 +1632,11 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1639,29 +1682,29 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -1669,13 +1712,16 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1834,29 +1886,29 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
@@ -1864,13 +1916,16 @@
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>200</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1899,29 +1954,29 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
@@ -1929,13 +1984,16 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>200</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2289,29 +2362,29 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
@@ -2319,13 +2392,16 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2419,29 +2498,29 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
@@ -2449,83 +2528,89 @@
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2589,11 +2676,11 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2725,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2733,8 +2826,8 @@
       <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2751,8 +2844,8 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2914,13 +3016,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -2929,7 +3031,7 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,13 +3134,16 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>800</v>
@@ -3058,8 +3166,8 @@
       <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>800</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -3076,8 +3184,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3434,13 +3560,13 @@
         <v>800</v>
       </c>
       <c r="G54" s="3">
+        <v>800</v>
+      </c>
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>900</v>
       </c>
       <c r="J54" s="3">
         <v>900</v>
@@ -3449,7 +3575,7 @@
         <v>900</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,13 +3664,14 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3549,10 +3680,10 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3561,10 +3692,10 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3573,7 +3704,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3585,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>600</v>
@@ -3597,10 +3728,13 @@
         <v>600</v>
       </c>
       <c r="W57" s="3">
+        <v>600</v>
+      </c>
+      <c r="X57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,16 +3745,16 @@
         <v>900</v>
       </c>
       <c r="F58" s="3">
+        <v>900</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3632,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>1700</v>
@@ -3644,13 +3778,13 @@
         <v>1700</v>
       </c>
       <c r="Q58" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R58" s="3">
         <v>1600</v>
       </c>
       <c r="S58" s="3">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T58" s="3">
         <v>1000</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3688,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3709,13 +3846,13 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
-      </c>
-      <c r="S59" s="3">
-        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,16 +3878,16 @@
         <v>1100</v>
       </c>
       <c r="E60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F60" s="3">
         <v>1000</v>
       </c>
       <c r="G60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -3759,43 +3899,46 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
+        <v>200</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1800</v>
       </c>
       <c r="O60" s="3">
         <v>1800</v>
       </c>
       <c r="P60" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="Q60" s="3">
         <v>1700</v>
       </c>
       <c r="R60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3809,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>800</v>
@@ -3824,7 +3967,7 @@
         <v>800</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,7 +4286,7 @@
         <v>1100</v>
       </c>
       <c r="E66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F66" s="3">
         <v>1000</v>
@@ -4146,46 +4304,49 @@
         <v>1000</v>
       </c>
       <c r="K66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1800</v>
       </c>
       <c r="O66" s="3">
         <v>1800</v>
       </c>
       <c r="P66" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="Q66" s="3">
         <v>1700</v>
       </c>
       <c r="R66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4478,7 +4652,7 @@
         <v>-4800</v>
       </c>
       <c r="E72" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="F72" s="3">
         <v>-4700</v>
@@ -4490,7 +4664,7 @@
         <v>-4700</v>
       </c>
       <c r="I72" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="J72" s="3">
         <v>-4600</v>
@@ -4502,25 +4676,25 @@
         <v>-4600</v>
       </c>
       <c r="M72" s="3">
-        <v>-6300</v>
+        <v>-4600</v>
       </c>
       <c r="N72" s="3">
         <v>-6300</v>
       </c>
       <c r="O72" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="P72" s="3">
         <v>-6200</v>
       </c>
       <c r="Q72" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="R72" s="3">
         <v>-5900</v>
       </c>
       <c r="S72" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="T72" s="3">
         <v>-5700</v>
@@ -4532,10 +4706,13 @@
         <v>-5700</v>
       </c>
       <c r="W72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="X72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4738,7 +4924,7 @@
         <v>-300</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F76" s="3">
         <v>-200</v>
@@ -4750,7 +4936,7 @@
         <v>-200</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -4762,40 +4948,43 @@
         <v>-100</v>
       </c>
       <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1800</v>
       </c>
       <c r="O76" s="3">
         <v>-1800</v>
       </c>
       <c r="P76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="Q76" s="3">
         <v>-1700</v>
       </c>
       <c r="R76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4959,29 +5154,29 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
@@ -4989,13 +5184,16 @@
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5045,8 +5244,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -5054,8 +5253,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6103,14 +6349,17 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>IRCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +836,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +910,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +984,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,16 +1016,18 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3">
+        <v>100</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,49 +1160,55 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1800</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1190,13 +1229,19 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1227,11 +1272,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1245,11 +1290,11 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1337,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1319,29 +1372,29 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>-1800</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
@@ -1349,13 +1402,19 @@
         <v>0</v>
       </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>-200</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1387,29 +1446,29 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
@@ -1417,13 +1476,19 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1583,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,7 +1598,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1545,11 +1618,11 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -1584,8 +1657,14 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1598,14 +1677,14 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1635,14 +1714,14 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1652,8 +1731,14 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1685,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>1700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1700,28 +1785,34 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1953,14 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1865,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1889,13 +1992,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>1700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -1904,28 +2007,34 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1957,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>1700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -1972,28 +2081,34 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,8 +2471,14 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2365,13 +2510,13 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>1700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -2380,28 +2525,34 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2619,14 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2501,13 +2658,13 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>1700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2516,101 +2673,113 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,16 +2832,18 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2679,14 +2852,14 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2902,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,16 +2976,22 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2821,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2847,11 +3032,11 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2865,8 +3050,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3124,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,16 +3198,22 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3019,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -3028,16 +3231,16 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -3069,8 +3272,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,19 +3346,25 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>800</v>
       </c>
       <c r="G48" s="3">
         <v>800</v>
@@ -3169,11 +3384,11 @@
       <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>800</v>
+      </c>
+      <c r="N48" s="3">
+        <v>800</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -3187,11 +3402,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3205,8 +3420,14 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,16 +3790,22 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F54" s="3">
         <v>800</v>
@@ -3563,7 +3814,7 @@
         <v>800</v>
       </c>
       <c r="H54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I54" s="3">
         <v>800</v>
@@ -3572,16 +3823,16 @@
         <v>900</v>
       </c>
       <c r="K54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L54" s="3">
         <v>900</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -3613,8 +3864,14 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3924,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,43 +3935,43 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3719,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>600</v>
@@ -3731,37 +3992,43 @@
         <v>600</v>
       </c>
       <c r="X57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
       </c>
       <c r="G58" s="3">
+        <v>900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>900</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -3769,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>1700</v>
@@ -3781,16 +4048,16 @@
         <v>1700</v>
       </c>
       <c r="R58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T58" s="3">
         <v>1600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1000</v>
       </c>
       <c r="V58" s="3">
         <v>1000</v>
@@ -3801,8 +4068,14 @@
       <c r="X58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3828,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -3849,16 +4122,16 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>100</v>
-      </c>
-      <c r="U59" s="3">
-        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
@@ -3869,31 +4142,37 @@
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -3902,31 +4181,31 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
+        <v>200</v>
+      </c>
+      <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1800</v>
       </c>
       <c r="T60" s="3">
         <v>1700</v>
       </c>
       <c r="U60" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="V60" s="3">
         <v>1700</v>
@@ -3935,10 +4214,16 @@
         <v>1600</v>
       </c>
       <c r="X60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3955,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>800</v>
@@ -3970,10 +4255,10 @@
         <v>800</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4005,8 +4290,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,22 +4586,28 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1000</v>
       </c>
       <c r="H66" s="3">
         <v>1000</v>
@@ -4307,34 +4622,34 @@
         <v>1000</v>
       </c>
       <c r="L66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1800</v>
       </c>
       <c r="T66" s="3">
         <v>1700</v>
       </c>
       <c r="U66" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="V66" s="3">
         <v>1700</v>
@@ -4343,10 +4658,16 @@
         <v>1600</v>
       </c>
       <c r="X66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,22 +4984,28 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-4700</v>
       </c>
       <c r="H72" s="3">
         <v>-4700</v>
@@ -4667,10 +5014,10 @@
         <v>-4700</v>
       </c>
       <c r="J72" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="K72" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="L72" s="3">
         <v>-4600</v>
@@ -4679,28 +5026,28 @@
         <v>-4600</v>
       </c>
       <c r="N72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-6300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-5900</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-5700</v>
       </c>
       <c r="V72" s="3">
         <v>-5700</v>
@@ -4709,10 +5056,16 @@
         <v>-5700</v>
       </c>
       <c r="X72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,22 +5280,28 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
@@ -4939,10 +5310,10 @@
         <v>-200</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -4951,28 +5322,28 @@
         <v>-100</v>
       </c>
       <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1800</v>
       </c>
       <c r="T76" s="3">
         <v>-1700</v>
       </c>
       <c r="U76" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="V76" s="3">
         <v>-1700</v>
@@ -4981,10 +5352,16 @@
         <v>-1600</v>
       </c>
       <c r="X76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5428,93 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -5157,13 +5546,13 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>1700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -5172,28 +5561,34 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5247,20 +5644,20 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6053,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +6127,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6229,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6451,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,31 +6775,37 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6352,14 +6843,20 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,16 +6923,22 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -6492,6 +6995,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
